--- a/analysis/parameter_list.xlsx
+++ b/analysis/parameter_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
   <si>
     <t>result_201601292238</t>
   </si>
@@ -60,142 +60,288 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TotalHb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201601292328</t>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201601292333</t>
+  </si>
+  <si>
+    <t>result_201601300017</t>
+  </si>
+  <si>
+    <t>result_201601300251</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602011508</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F-measure average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602011730</t>
+  </si>
+  <si>
+    <t>result_201602011738</t>
+  </si>
+  <si>
+    <t>onlytest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onlytest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602011750</t>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602011959</t>
+  </si>
+  <si>
+    <t>onlytest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602021536</t>
+  </si>
+  <si>
+    <t>onlytest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602021650</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602021850</t>
+  </si>
+  <si>
+    <t>result_201602030104</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bpf(HPF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bpf(LPF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>random seed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distance average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052124</t>
+  </si>
+  <si>
+    <t>result_201602052127</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052129</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052134</t>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>feature</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TotalHb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201601292328</t>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201601292333</t>
-  </si>
-  <si>
-    <t>result_201601300017</t>
-  </si>
-  <si>
-    <t>result_201601300251</t>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052139</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target_sessions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052207</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSSM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052235</t>
+  </si>
+  <si>
+    <t>result_201602052242</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602052209</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602221656</t>
   </si>
   <si>
     <t>none</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBX3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>step</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>miss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>miss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>miss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602011508</t>
-  </si>
-  <si>
-    <t>random seed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>step</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F-measure average</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602011730</t>
-  </si>
-  <si>
-    <t>result_201602011738</t>
-  </si>
-  <si>
-    <t>onlytest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>onlytest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602011750</t>
-  </si>
-  <si>
-    <t>replace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602011959</t>
-  </si>
-  <si>
-    <t>onlytest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602021536</t>
-  </si>
-  <si>
-    <t>onlytest</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602021650</t>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result_201602021850</t>
-  </si>
-  <si>
-    <t>result_201602030104</t>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>replace</t>
+    <t>time duration</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -263,8 +409,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -310,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="63">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -331,6 +499,17 @@
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -352,6 +531,17 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -680,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -691,247 +881,297 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>0.29461538500000001</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0.30076923076923046</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>8</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.3007142857142851</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>8</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0.30928571428571378</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>200</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>8</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0.3083333333333329</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="N6">
         <v>200</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6">
+      <c r="R6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0.31055555555555536</v>
@@ -939,40 +1179,46 @@
       <c r="D7">
         <v>0.19417485817901403</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="N7">
         <v>200</v>
       </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="N7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -980,40 +1226,46 @@
       <c r="D8">
         <v>0.21276676567191999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1000</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="N8">
         <v>200</v>
       </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
         <v>8</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0.24</v>
@@ -1021,37 +1273,43 @@
       <c r="D9">
         <v>0.213927738927738</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1000000</v>
       </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="N9">
         <v>200</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
         <v>8</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>0.26692307692307654</v>
@@ -1059,40 +1317,46 @@
       <c r="D10">
         <v>0.20499584300947199</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="N10">
         <v>200</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
-      </c>
-      <c r="M10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11">
         <v>0.309999999999999</v>
@@ -1100,40 +1364,46 @@
       <c r="D11">
         <v>0.20116588588989101</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>100</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>200</v>
       </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
         <v>8</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>0.27900000000000003</v>
@@ -1141,40 +1411,46 @@
       <c r="D12">
         <v>0.21842006580000001</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="N12">
         <v>200</v>
       </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="s">
         <v>8</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>0.32699999999999962</v>
@@ -1182,37 +1458,43 @@
       <c r="D13">
         <v>0.21684124042273872</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="N13">
         <v>200</v>
       </c>
-      <c r="K13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="s">
         <v>8</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0.31388888888888877</v>
@@ -1220,37 +1502,43 @@
       <c r="C14">
         <v>0.17365452738795395</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="N14">
         <v>200</v>
       </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" t="s">
         <v>8</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0.25738461538461527</v>
@@ -1258,32 +1546,645 @@
       <c r="C15">
         <v>0.1961658021165959</v>
       </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="N15">
         <v>200</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>0.22499999999999951</v>
+      </c>
+      <c r="D16">
+        <v>0.14698002594444201</v>
+      </c>
+      <c r="E16">
+        <v>0.208033523627179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="s">
         <v>47</v>
       </c>
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>50</v>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <v>0.03</v>
+      </c>
+      <c r="T16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0.215</v>
+      </c>
+      <c r="D17">
+        <v>0.1774740796178535</v>
+      </c>
+      <c r="E17">
+        <v>0.1993310562265945</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>0.05</v>
+      </c>
+      <c r="T17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>0.215</v>
+      </c>
+      <c r="D18">
+        <v>0.16061889827652148</v>
+      </c>
+      <c r="E18">
+        <v>0.1998420340986215</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18">
+        <v>0.1</v>
+      </c>
+      <c r="T18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.1243449109030501</v>
+      </c>
+      <c r="E19">
+        <v>0.19293517969874752</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19">
+        <v>0.1</v>
+      </c>
+      <c r="T19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>0.28500000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.14225664725357851</v>
+      </c>
+      <c r="E20">
+        <v>0.19358220151413449</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20">
+        <v>0.05</v>
+      </c>
+      <c r="T20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.17542762613730301</v>
+      </c>
+      <c r="E21">
+        <v>0.30267556589865902</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21">
+        <v>0.05</v>
+      </c>
+      <c r="T21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0.4375</v>
+      </c>
+      <c r="D22">
+        <v>0.14505494505494451</v>
+      </c>
+      <c r="E22">
+        <v>0.34939940317440399</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22">
+        <v>0.05</v>
+      </c>
+      <c r="T22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>0.31</v>
+      </c>
+      <c r="D23">
+        <v>9.4656488549618306E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.23937418407171601</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23">
+        <v>0.05</v>
+      </c>
+      <c r="T23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="D24">
+        <v>0.11282497102169201</v>
+      </c>
+      <c r="E24">
+        <v>0.32077120053506802</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24">
+        <v>0.05</v>
+      </c>
+      <c r="T24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25">
+        <v>0.1</v>
+      </c>
+      <c r="T25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>0.58450980392156859</v>
+      </c>
+      <c r="D26">
+        <v>0.44894569143411373</v>
+      </c>
+      <c r="E26">
+        <v>0.10717667803965436</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26">
+        <v>0.05</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/parameter_list.xlsx
+++ b/analysis/parameter_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
   <si>
     <t>result_201601292238</t>
   </si>
@@ -342,6 +342,14 @@
   </si>
   <si>
     <t>time duration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resampline_method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,8 +417,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="67">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -510,6 +522,8 @@
     <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -542,6 +556,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -870,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -882,10 +898,10 @@
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -929,25 +945,28 @@
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -984,16 +1003,19 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1028,16 +1050,19 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1072,16 +1097,19 @@
         <v>20</v>
       </c>
       <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>8</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1116,16 +1144,19 @@
         <v>200</v>
       </c>
       <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>8</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1159,17 +1190,17 @@
       <c r="N6">
         <v>200</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>19</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1203,17 +1234,17 @@
       <c r="N7">
         <v>200</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1250,17 +1281,17 @@
       <c r="N8">
         <v>200</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>8</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1297,17 +1328,17 @@
       <c r="N9">
         <v>200</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>8</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1342,16 +1373,19 @@
         <v>200</v>
       </c>
       <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>8</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1389,16 +1423,19 @@
         <v>200</v>
       </c>
       <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>8</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1436,16 +1473,19 @@
         <v>200</v>
       </c>
       <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>8</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1482,17 +1522,17 @@
       <c r="N13">
         <v>200</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>8</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1526,17 +1566,17 @@
       <c r="N14">
         <v>200</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1571,16 +1611,19 @@
         <v>200</v>
       </c>
       <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>8</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1620,23 +1663,23 @@
       <c r="N16">
         <v>100</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>47</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>46</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.03</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1676,23 +1719,23 @@
       <c r="N17">
         <v>100</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>47</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>46</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.05</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1732,23 +1775,23 @@
       <c r="N18">
         <v>100</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>47</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>46</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.1</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1788,23 +1831,23 @@
       <c r="N19">
         <v>100</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>46</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>59</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>46</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.1</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1844,23 +1887,23 @@
       <c r="N20">
         <v>100</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>46</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>59</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>46</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.05</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1900,23 +1943,23 @@
       <c r="N21">
         <v>100</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>59</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>46</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.05</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1956,23 +1999,23 @@
       <c r="N22">
         <v>100</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>59</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>46</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.05</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2012,23 +2055,23 @@
       <c r="N23">
         <v>100</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>59</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>39</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.05</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2068,23 +2111,23 @@
       <c r="N24">
         <v>100</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>59</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>39</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.05</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -2112,23 +2155,23 @@
       <c r="N25">
         <v>100</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>59</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>39</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.1</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -2169,21 +2212,24 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="s">
         <v>83</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>25</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>84</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>79</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.05</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.5</v>
       </c>
     </row>

--- a/analysis/parameter_list.xlsx
+++ b/analysis/parameter_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
   <si>
     <t>result_201601292238</t>
   </si>
@@ -351,6 +351,17 @@
   <si>
     <t>bootstrap</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_201602221931</t>
   </si>
 </sst>
 </file>
@@ -417,8 +428,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -524,6 +537,7 @@
     <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -558,6 +572,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -886,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2211,14 +2226,8 @@
       <c r="N26">
         <v>100</v>
       </c>
-      <c r="O26" t="s">
-        <v>87</v>
-      </c>
       <c r="P26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q26">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="R26" t="s">
         <v>84</v>
@@ -2230,6 +2239,68 @@
         <v>0.05</v>
       </c>
       <c r="U26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27">
+        <v>0.53222789115646219</v>
+      </c>
+      <c r="D27">
+        <v>0.52402516938852373</v>
+      </c>
+      <c r="E27">
+        <v>0.10579076233546306</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>0.05</v>
+      </c>
+      <c r="U27">
         <v>0.5</v>
       </c>
     </row>
